--- a/fgt-tables/fgt_nivel_instrucao_sm.xlsx
+++ b/fgt-tables/fgt_nivel_instrucao_sm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.1210578948028312</v>
+        <v>0.1107347873458729</v>
       </c>
       <c r="C2">
-        <v>0.002284324744997024</v>
+        <v>0.002963102129239998</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1202565196457194</v>
+        <v>0.1076506458811195</v>
       </c>
       <c r="C3">
-        <v>0.001336145619960413</v>
+        <v>0.001400656513985915</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.09122077319487644</v>
+        <v>0.08703852422468288</v>
       </c>
       <c r="C4">
-        <v>0.001816696548293407</v>
+        <v>0.002767699295926451</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.09797332023712864</v>
+        <v>0.09880964859350067</v>
       </c>
       <c r="C5">
-        <v>0.001986211385309826</v>
+        <v>0.003304587644529865</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.05227140393191111</v>
+        <v>0.05622964218543108</v>
       </c>
       <c r="C6">
-        <v>0.001070085797551816</v>
+        <v>0.001546233530488934</v>
       </c>
     </row>
     <row r="7">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.02323159465772044</v>
+        <v>0.02994570698494851</v>
       </c>
       <c r="C7">
-        <v>0.001280986850353687</v>
+        <v>0.002914276493481508</v>
       </c>
     </row>
     <row r="8">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.008361622436413241</v>
+        <v>0.01071931590666068</v>
       </c>
       <c r="C8">
-        <v>0.0005060393771214481</v>
+        <v>0.0008408392436984117</v>
       </c>
     </row>
   </sheetData>
